--- a/TESTDATA/RESOURCES/templates/Noten/Noteneingabe.xlsx
+++ b/TESTDATA/RESOURCES/templates/Noten/Noteneingabe.xlsx
@@ -103,7 +103,7 @@
     <t xml:space="preserve">Schüler(in)</t>
   </si>
   <si>
-    <t xml:space="preserve">Maßstab</t>
+    <t xml:space="preserve">Gruppen</t>
   </si>
   <si>
     <t xml:space="preserve">X</t>
@@ -395,10 +395,10 @@
   <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.74"/>
@@ -2196,14 +2196,14 @@
     <mergeCell ref="N4:S4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E11:AD52" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E11:AD52" type="list">
       <formula1>"1+,1,1-,2+,2,2-,3+,3,3-,4+,4,4-,5+,5,5-,6,nb,nt,t,*,/"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.636805555555555" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/TESTDATA/RESOURCES/templates/Noten/Noteneingabe.xlsx
+++ b/TESTDATA/RESOURCES/templates/Noten/Noteneingabe.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="30">
-  <si>
-    <t xml:space="preserve">#</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
   <si>
     <t xml:space="preserve">Noten</t>
   </si>
@@ -120,7 +117,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -156,13 +153,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -252,42 +242,38 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -303,15 +289,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -395,10 +385,10 @@
   <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.74"/>
@@ -410,358 +400,357 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-    </row>
-    <row r="3" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="5"/>
+      <c r="U3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="6"/>
-      <c r="U3" s="6"/>
-    </row>
-    <row r="4" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="U4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="U4" s="6"/>
-    </row>
-    <row r="5" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="U5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="U5" s="6"/>
-    </row>
-    <row r="6" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="U6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="U6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="8.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="44.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD8" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="94.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="V8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="W8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="X8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD8" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="94.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
     </row>
     <row r="10" customFormat="false" ht="8.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="11"/>
+      <c r="AA10" s="11"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="16"/>
+      <c r="A11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="15"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="12"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -790,12 +779,12 @@
       <c r="AD11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="16"/>
+      <c r="A12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="15"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -824,12 +813,12 @@
       <c r="AD12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="16"/>
+      <c r="A13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="15"/>
       <c r="C13" s="16"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -858,12 +847,12 @@
       <c r="AD13" s="17"/>
     </row>
     <row r="14" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="16"/>
+      <c r="A14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="15"/>
       <c r="C14" s="16"/>
-      <c r="D14" s="12"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -892,12 +881,12 @@
       <c r="AD14" s="17"/>
     </row>
     <row r="15" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="16"/>
+      <c r="A15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="15"/>
       <c r="C15" s="16"/>
-      <c r="D15" s="12"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -926,12 +915,12 @@
       <c r="AD15" s="17"/>
     </row>
     <row r="16" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="16"/>
+      <c r="A16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="15"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="12"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
@@ -960,12 +949,12 @@
       <c r="AD16" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="16"/>
+      <c r="A17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -994,12 +983,12 @@
       <c r="AD17" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="16"/>
+      <c r="A18" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="15"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -1028,12 +1017,12 @@
       <c r="AD18" s="17"/>
     </row>
     <row r="19" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="16"/>
+      <c r="A19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="15"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -1062,12 +1051,12 @@
       <c r="AD19" s="17"/>
     </row>
     <row r="20" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="16"/>
+      <c r="A20" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="15"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -1096,12 +1085,12 @@
       <c r="AD20" s="17"/>
     </row>
     <row r="21" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="16"/>
+      <c r="A21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="15"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -1130,12 +1119,12 @@
       <c r="AD21" s="17"/>
     </row>
     <row r="22" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="16"/>
+      <c r="A22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="15"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -1164,12 +1153,12 @@
       <c r="AD22" s="17"/>
     </row>
     <row r="23" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="16"/>
+      <c r="A23" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="15"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -1198,12 +1187,12 @@
       <c r="AD23" s="17"/>
     </row>
     <row r="24" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="16"/>
+      <c r="A24" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="15"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -1232,12 +1221,12 @@
       <c r="AD24" s="17"/>
     </row>
     <row r="25" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="16"/>
+      <c r="A25" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="15"/>
       <c r="C25" s="16"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -1266,12 +1255,12 @@
       <c r="AD25" s="17"/>
     </row>
     <row r="26" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="16"/>
+      <c r="A26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="15"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -1300,12 +1289,12 @@
       <c r="AD26" s="17"/>
     </row>
     <row r="27" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="16"/>
+      <c r="A27" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="15"/>
       <c r="C27" s="16"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>
@@ -1334,12 +1323,12 @@
       <c r="AD27" s="17"/>
     </row>
     <row r="28" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="16"/>
+      <c r="A28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15"/>
       <c r="C28" s="16"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -1368,12 +1357,12 @@
       <c r="AD28" s="17"/>
     </row>
     <row r="29" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="16"/>
+      <c r="A29" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="15"/>
       <c r="C29" s="16"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -1402,12 +1391,12 @@
       <c r="AD29" s="17"/>
     </row>
     <row r="30" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="16"/>
+      <c r="A30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="15"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -1436,12 +1425,12 @@
       <c r="AD30" s="17"/>
     </row>
     <row r="31" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="16"/>
+      <c r="A31" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="15"/>
       <c r="C31" s="16"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -1470,12 +1459,12 @@
       <c r="AD31" s="17"/>
     </row>
     <row r="32" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B32" s="16"/>
+      <c r="A32" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="15"/>
       <c r="C32" s="16"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -1504,12 +1493,12 @@
       <c r="AD32" s="17"/>
     </row>
     <row r="33" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="16"/>
+      <c r="A33" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="15"/>
       <c r="C33" s="16"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -1538,12 +1527,12 @@
       <c r="AD33" s="17"/>
     </row>
     <row r="34" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B34" s="16"/>
+      <c r="A34" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="15"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="12"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -1572,12 +1561,12 @@
       <c r="AD34" s="17"/>
     </row>
     <row r="35" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" s="16"/>
+      <c r="A35" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="15"/>
       <c r="C35" s="16"/>
-      <c r="D35" s="12"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -1606,12 +1595,12 @@
       <c r="AD35" s="17"/>
     </row>
     <row r="36" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="16"/>
+      <c r="A36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="15"/>
       <c r="C36" s="16"/>
-      <c r="D36" s="12"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
@@ -1640,12 +1629,12 @@
       <c r="AD36" s="17"/>
     </row>
     <row r="37" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="16"/>
+      <c r="A37" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="15"/>
       <c r="C37" s="16"/>
-      <c r="D37" s="12"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -1674,12 +1663,12 @@
       <c r="AD37" s="17"/>
     </row>
     <row r="38" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="16"/>
+      <c r="A38" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="15"/>
       <c r="C38" s="16"/>
-      <c r="D38" s="12"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -1708,12 +1697,12 @@
       <c r="AD38" s="17"/>
     </row>
     <row r="39" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39" s="16"/>
+      <c r="A39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="15"/>
       <c r="C39" s="16"/>
-      <c r="D39" s="12"/>
+      <c r="D39" s="11"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -1742,12 +1731,12 @@
       <c r="AD39" s="17"/>
     </row>
     <row r="40" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="16"/>
+      <c r="A40" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="15"/>
       <c r="C40" s="16"/>
-      <c r="D40" s="12"/>
+      <c r="D40" s="11"/>
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
@@ -1776,12 +1765,12 @@
       <c r="AD40" s="17"/>
     </row>
     <row r="41" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B41" s="16"/>
+      <c r="A41" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="15"/>
       <c r="C41" s="16"/>
-      <c r="D41" s="12"/>
+      <c r="D41" s="11"/>
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -1810,12 +1799,12 @@
       <c r="AD41" s="17"/>
     </row>
     <row r="42" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B42" s="16"/>
+      <c r="A42" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="15"/>
       <c r="C42" s="16"/>
-      <c r="D42" s="12"/>
+      <c r="D42" s="11"/>
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
@@ -1844,12 +1833,12 @@
       <c r="AD42" s="17"/>
     </row>
     <row r="43" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="16"/>
+      <c r="A43" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="15"/>
       <c r="C43" s="16"/>
-      <c r="D43" s="12"/>
+      <c r="D43" s="11"/>
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -1878,12 +1867,12 @@
       <c r="AD43" s="17"/>
     </row>
     <row r="44" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="16"/>
+      <c r="A44" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="15"/>
       <c r="C44" s="16"/>
-      <c r="D44" s="12"/>
+      <c r="D44" s="11"/>
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
@@ -1912,12 +1901,12 @@
       <c r="AD44" s="17"/>
     </row>
     <row r="45" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="16"/>
+      <c r="A45" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="15"/>
       <c r="C45" s="16"/>
-      <c r="D45" s="12"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="17"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
@@ -1946,12 +1935,12 @@
       <c r="AD45" s="17"/>
     </row>
     <row r="46" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="16"/>
+      <c r="A46" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="15"/>
       <c r="C46" s="16"/>
-      <c r="D46" s="12"/>
+      <c r="D46" s="11"/>
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
@@ -1980,12 +1969,12 @@
       <c r="AD46" s="17"/>
     </row>
     <row r="47" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="16"/>
+      <c r="A47" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="15"/>
       <c r="C47" s="16"/>
-      <c r="D47" s="12"/>
+      <c r="D47" s="11"/>
       <c r="E47" s="17"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
@@ -2014,12 +2003,12 @@
       <c r="AD47" s="17"/>
     </row>
     <row r="48" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="16"/>
+      <c r="A48" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="15"/>
       <c r="C48" s="16"/>
-      <c r="D48" s="12"/>
+      <c r="D48" s="11"/>
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
@@ -2048,12 +2037,12 @@
       <c r="AD48" s="17"/>
     </row>
     <row r="49" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" s="16"/>
+      <c r="A49" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="15"/>
       <c r="C49" s="16"/>
-      <c r="D49" s="12"/>
+      <c r="D49" s="11"/>
       <c r="E49" s="17"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
@@ -2082,12 +2071,12 @@
       <c r="AD49" s="17"/>
     </row>
     <row r="50" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="16"/>
+      <c r="A50" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="15"/>
       <c r="C50" s="16"/>
-      <c r="D50" s="12"/>
+      <c r="D50" s="11"/>
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
@@ -2116,12 +2105,12 @@
       <c r="AD50" s="17"/>
     </row>
     <row r="51" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B51" s="16"/>
+      <c r="A51" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="15"/>
       <c r="C51" s="16"/>
-      <c r="D51" s="12"/>
+      <c r="D51" s="11"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
@@ -2150,12 +2139,12 @@
       <c r="AD51" s="17"/>
     </row>
     <row r="52" customFormat="false" ht="22.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="16"/>
+      <c r="A52" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="15"/>
       <c r="C52" s="16"/>
-      <c r="D52" s="12"/>
+      <c r="D52" s="11"/>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
@@ -2184,9 +2173,8 @@
       <c r="AD52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="F1:S1"/>
+  <mergeCells count="8">
+    <mergeCell ref="B1:S1"/>
     <mergeCell ref="F2:S2"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="J3:L3"/>
@@ -2196,14 +2184,14 @@
     <mergeCell ref="N4:S4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E11:AD52" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E11:AD52" type="list">
       <formula1>"1+,1,1-,2+,2,2-,3+,3,3-,4+,4,4-,5+,5,5-,6,nb,nt,t,*,/"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.636805555555555" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="0" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
